--- a/data/sample_matrix.xlsx
+++ b/data/sample_matrix.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365coloradoedu-my.sharepoint.com/personal/trca9794_colorado_edu/Documents/projects/Permafrost/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tacaro/Documents/GitHub/permafrost_LHSIP/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="337" documentId="13_ncr:1_{104FAA4F-7677-C94E-869F-A64895639061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46D432A3-91DC-8B40-B41D-47B3A9B17857}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA74D4EF-E5F1-EE4B-8496-966F82BD78F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sample_matrix" sheetId="1" r:id="rId1"/>
-    <sheet name="GC_not_0.5ml" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="GC_not_0.5ml" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1247,7 +1248,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3388,6 +3389,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D0FA965-0B7B-B644-B26E-1E31B4F7C0E4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E23AE01-9D13-FB4C-BF8A-E50F1C228CA0}">
   <dimension ref="A1:B15"/>
   <sheetViews>

--- a/data/sample_matrix.xlsx
+++ b/data/sample_matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tacaro/Documents/GitHub/permafrost_LHSIP/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA74D4EF-E5F1-EE4B-8496-966F82BD78F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60471DFD-F5F8-D648-ACD6-722E39D44F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="85">
   <si>
     <t>core</t>
   </si>
@@ -55,117 +55,27 @@
     <t>35m</t>
   </si>
   <si>
-    <t>p35m(-4C)0d</t>
-  </si>
-  <si>
-    <t>p35m(-4C)7d</t>
-  </si>
-  <si>
-    <t>p35m(-4C)30d</t>
-  </si>
-  <si>
-    <t>p35m(-4C)180d</t>
-  </si>
-  <si>
-    <t>p35m(4C)0d</t>
-  </si>
-  <si>
-    <t>p35m(4C)7d</t>
-  </si>
-  <si>
-    <t>p35m(4C)30d</t>
-  </si>
-  <si>
     <t>p35m(4C)180d</t>
   </si>
   <si>
-    <t>p35m(12C)0d</t>
-  </si>
-  <si>
-    <t>p35m(12C)7d</t>
-  </si>
-  <si>
-    <t>p35m(12C)30d</t>
-  </si>
-  <si>
     <t>p35m(12C)180d</t>
   </si>
   <si>
     <t>54m</t>
   </si>
   <si>
-    <t>p54m(-4C)0d</t>
-  </si>
-  <si>
-    <t>p54m(-4C)7d</t>
-  </si>
-  <si>
-    <t>p54m(-4C)30d</t>
-  </si>
-  <si>
-    <t>p54m(-4C)180d</t>
-  </si>
-  <si>
-    <t>p54m(4C)0d</t>
-  </si>
-  <si>
-    <t>p54m(4C)7d</t>
-  </si>
-  <si>
-    <t>p54m(4C)30d</t>
-  </si>
-  <si>
     <t>p54m(4C)180d</t>
   </si>
   <si>
-    <t>p54m(12C)0d</t>
-  </si>
-  <si>
-    <t>p54m(12C)7d</t>
-  </si>
-  <si>
-    <t>p54m(12C)30d</t>
-  </si>
-  <si>
     <t>p54m(12C)180d</t>
   </si>
   <si>
     <t>83m</t>
   </si>
   <si>
-    <t>p83m(-4C)0d</t>
-  </si>
-  <si>
-    <t>p83m(-4C)7d</t>
-  </si>
-  <si>
-    <t>p83m(-4C)30d</t>
-  </si>
-  <si>
-    <t>p83m(-4C)180d</t>
-  </si>
-  <si>
-    <t>p83m(4C)0d</t>
-  </si>
-  <si>
-    <t>p83m(4C)7d</t>
-  </si>
-  <si>
-    <t>p83m(4C)30d</t>
-  </si>
-  <si>
     <t>p83m(4C)180d</t>
   </si>
   <si>
-    <t>p83m(12C)0d</t>
-  </si>
-  <si>
-    <t>p83m(12C)7d</t>
-  </si>
-  <si>
-    <t>p83m(12C)30d</t>
-  </si>
-  <si>
     <t>p83m(12C)180d</t>
   </si>
   <si>
@@ -278,6 +188,114 @@
   </si>
   <si>
     <t>decanted</t>
+  </si>
+  <si>
+    <t>p35(-4C)0d</t>
+  </si>
+  <si>
+    <t>p35(-4C)7d</t>
+  </si>
+  <si>
+    <t>p35(-4C)30d</t>
+  </si>
+  <si>
+    <t>p35(-4C)180d</t>
+  </si>
+  <si>
+    <t>p35(4C)0d</t>
+  </si>
+  <si>
+    <t>p35(4C)7d</t>
+  </si>
+  <si>
+    <t>p35(4C)30d</t>
+  </si>
+  <si>
+    <t>p35(4C)180d</t>
+  </si>
+  <si>
+    <t>p35(12C)0d</t>
+  </si>
+  <si>
+    <t>p35(12C)7d</t>
+  </si>
+  <si>
+    <t>p35(12C)30d</t>
+  </si>
+  <si>
+    <t>p35(12C)180d</t>
+  </si>
+  <si>
+    <t>p54(-4C)0d</t>
+  </si>
+  <si>
+    <t>p54(-4C)7d</t>
+  </si>
+  <si>
+    <t>p54(-4C)30d</t>
+  </si>
+  <si>
+    <t>p54(-4C)180d</t>
+  </si>
+  <si>
+    <t>p54(4C)0d</t>
+  </si>
+  <si>
+    <t>p54(4C)7d</t>
+  </si>
+  <si>
+    <t>p54(4C)30d</t>
+  </si>
+  <si>
+    <t>p54(4C)180d</t>
+  </si>
+  <si>
+    <t>p54(12C)0d</t>
+  </si>
+  <si>
+    <t>p54(12C)7d</t>
+  </si>
+  <si>
+    <t>p54(12C)30d</t>
+  </si>
+  <si>
+    <t>p54(12C)180d</t>
+  </si>
+  <si>
+    <t>p83(-4C)0d</t>
+  </si>
+  <si>
+    <t>p83(-4C)7d</t>
+  </si>
+  <si>
+    <t>p83(-4C)30d</t>
+  </si>
+  <si>
+    <t>p83(-4C)180d</t>
+  </si>
+  <si>
+    <t>p83(4C)0d</t>
+  </si>
+  <si>
+    <t>p83(4C)7d</t>
+  </si>
+  <si>
+    <t>p83(4C)30d</t>
+  </si>
+  <si>
+    <t>p83(4C)180d</t>
+  </si>
+  <si>
+    <t>p83(12C)0d</t>
+  </si>
+  <si>
+    <t>p83(12C)7d</t>
+  </si>
+  <si>
+    <t>p83(12C)30d</t>
+  </si>
+  <si>
+    <t>p83(12C)180d</t>
   </si>
 </sst>
 </file>
@@ -1248,7 +1266,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="F37" sqref="F2:F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1264,10 +1282,10 @@
   <sheetData>
     <row r="1" spans="1:24" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
@@ -1279,61 +1297,61 @@
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="R1" s="4" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -1353,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="G2" s="8">
         <v>89.8</v>
@@ -1365,22 +1383,22 @@
         <v>44847</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="P2" s="9">
         <v>44847</v>
@@ -1406,7 +1424,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G3" s="1">
         <v>78.8</v>
@@ -1459,7 +1477,7 @@
         <v>30</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="G4" s="1">
         <v>96.8</v>
@@ -1512,7 +1530,7 @@
         <v>180</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="G5" s="13">
         <v>69.8</v>
@@ -1559,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="G6" s="6">
         <v>80</v>
@@ -1571,22 +1589,22 @@
         <v>44862</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="P6" s="2">
         <v>44862</v>
@@ -1612,7 +1630,7 @@
         <v>7</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="G7" s="6">
         <v>96</v>
@@ -1665,7 +1683,7 @@
         <v>30</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="G8" s="6">
         <v>97</v>
@@ -1718,7 +1736,7 @@
         <v>180</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="2">
@@ -1763,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="G10" s="6">
         <v>80</v>
@@ -1775,22 +1793,22 @@
         <v>44862</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="P10" s="2">
         <v>44862</v>
@@ -1816,7 +1834,7 @@
         <v>7</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="G11" s="6">
         <v>100</v>
@@ -1869,7 +1887,7 @@
         <v>30</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="G12" s="6">
         <v>99</v>
@@ -1922,7 +1940,7 @@
         <v>180</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="2">
@@ -1958,7 +1976,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D14" s="8">
         <v>-4</v>
@@ -1967,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="G14" s="8">
         <v>61.8</v>
@@ -1979,22 +1997,22 @@
         <v>44847</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="P14" s="9">
         <v>44847</v>
@@ -2011,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D15" s="1">
         <v>-4</v>
@@ -2020,7 +2038,7 @@
         <v>7</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="G15" s="1">
         <v>87.8</v>
@@ -2064,7 +2082,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D16" s="1">
         <v>-4</v>
@@ -2073,7 +2091,7 @@
         <v>30</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="G16" s="1">
         <v>95.4</v>
@@ -2117,7 +2135,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D17" s="13">
         <v>-4</v>
@@ -2126,7 +2144,7 @@
         <v>180</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="G17" s="13">
         <v>89</v>
@@ -2164,7 +2182,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D18" s="1">
         <v>4</v>
@@ -2173,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="5">
@@ -2183,22 +2201,22 @@
         <v>44862</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="P18" s="2">
         <v>44862</v>
@@ -2215,7 +2233,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D19" s="1">
         <v>4</v>
@@ -2224,7 +2242,7 @@
         <v>7</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="G19" s="6">
         <v>67</v>
@@ -2268,7 +2286,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D20" s="1">
         <v>4</v>
@@ -2277,7 +2295,7 @@
         <v>30</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="G20" s="6">
         <v>79</v>
@@ -2321,7 +2339,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D21" s="1">
         <v>4</v>
@@ -2330,7 +2348,7 @@
         <v>180</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="2">
@@ -2366,7 +2384,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D22" s="1">
         <v>12</v>
@@ -2375,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="G22" s="6">
         <v>80</v>
@@ -2387,22 +2405,22 @@
         <v>44862</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="P22" s="2">
         <v>44862</v>
@@ -2419,7 +2437,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D23" s="1">
         <v>12</v>
@@ -2428,7 +2446,7 @@
         <v>7</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="G23" s="6">
         <v>96</v>
@@ -2472,7 +2490,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D24" s="1">
         <v>12</v>
@@ -2481,7 +2499,7 @@
         <v>30</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="G24" s="6">
         <v>90</v>
@@ -2525,7 +2543,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D25" s="1">
         <v>12</v>
@@ -2534,7 +2552,7 @@
         <v>180</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="2">
@@ -2570,7 +2588,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D26" s="8">
         <v>-4</v>
@@ -2579,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="G26" s="8">
         <v>78</v>
@@ -2591,22 +2609,22 @@
         <v>44847</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="P26" s="9">
         <v>44847</v>
@@ -2623,7 +2641,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D27" s="1">
         <v>-4</v>
@@ -2632,7 +2650,7 @@
         <v>7</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="G27" s="1">
         <v>80</v>
@@ -2676,7 +2694,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D28" s="1">
         <v>-4</v>
@@ -2685,7 +2703,7 @@
         <v>30</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="G28" s="1">
         <v>78.7</v>
@@ -2729,7 +2747,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D29" s="13">
         <v>-4</v>
@@ -2738,7 +2756,7 @@
         <v>180</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="G29" s="13">
         <v>81.3</v>
@@ -2776,7 +2794,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D30" s="1">
         <v>4</v>
@@ -2785,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="G30" s="6">
         <v>78</v>
@@ -2797,22 +2815,22 @@
         <v>44862</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="P30" s="2">
         <v>44862</v>
@@ -2829,7 +2847,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D31" s="1">
         <v>4</v>
@@ -2838,7 +2856,7 @@
         <v>7</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="G31" s="6">
         <v>90</v>
@@ -2882,7 +2900,7 @@
         <v>2</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D32" s="1">
         <v>4</v>
@@ -2891,7 +2909,7 @@
         <v>30</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="G32" s="6">
         <v>83</v>
@@ -2935,7 +2953,7 @@
         <v>2</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D33" s="1">
         <v>4</v>
@@ -2944,7 +2962,7 @@
         <v>180</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="2">
@@ -2980,7 +2998,7 @@
         <v>2</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D34" s="1">
         <v>12</v>
@@ -2989,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="G34" s="6">
         <v>78</v>
@@ -3001,22 +3019,22 @@
         <v>44862</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="P34" s="2">
         <v>44862</v>
@@ -3033,7 +3051,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D35" s="1">
         <v>12</v>
@@ -3042,7 +3060,7 @@
         <v>7</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="G35" s="6">
         <v>93</v>
@@ -3086,7 +3104,7 @@
         <v>2</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D36" s="1">
         <v>12</v>
@@ -3095,7 +3113,7 @@
         <v>30</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="G36" s="6">
         <v>78</v>
@@ -3139,7 +3157,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D37" s="1">
         <v>12</v>
@@ -3148,7 +3166,7 @@
         <v>180</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="2">
@@ -3184,7 +3202,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="D38" s="8">
         <v>12</v>
@@ -3193,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="G38" s="8">
         <v>87</v>
@@ -3205,22 +3223,22 @@
         <v>44847</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="M38" s="8" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="O38" s="8" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="P38" s="9">
         <v>44847</v>
@@ -3237,7 +3255,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="D39" s="1">
         <v>12</v>
@@ -3246,7 +3264,7 @@
         <v>7</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="G39" s="1">
         <v>90</v>
@@ -3290,7 +3308,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="D40" s="1">
         <v>12</v>
@@ -3299,7 +3317,7 @@
         <v>30</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="G40" s="1">
         <v>91</v>
@@ -3343,7 +3361,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="D41" s="13">
         <v>12</v>
@@ -3352,7 +3370,7 @@
         <v>180</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="G41" s="13">
         <v>97</v>
@@ -3417,122 +3435,122 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
